--- a/DE/E1_Despacho_Economico_Basico_Clasico.xlsx
+++ b/DE/E1_Despacho_Economico_Basico_Clasico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/MSExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{244B4A88-4495-B04B-904E-C5445B461BEA}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D209C8D5-68C5-8E47-84A9-15A327C823E5}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="36280" yWindow="2800" windowWidth="32700" windowHeight="17560" activeTab="3" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">NLP!$G$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">NLP!$G$10</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>Operación Económica de Sistemas de Potencia</t>
   </si>
@@ -619,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -729,8 +729,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,7 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -894,9 +914,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,13 +929,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1142,7 +1164,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>440267</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>153313</xdr:rowOff>
+      <xdr:rowOff>127913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1483,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C60A3A-DF61-1B4E-9BFF-C0C71A823190}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1671,13 +1693,13 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <f>S14+T14*O17+(1/2)*U14*O17^2</f>
         <v>13461.111111111115</v>
       </c>
@@ -1689,13 +1711,13 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f>S15+T15*O18+(1/2)*U15*O18^2</f>
         <v>5755.5555555555547</v>
       </c>
@@ -1728,7 +1750,7 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <f>SUM(C11:C12)</f>
         <v>19216.666666666672</v>
       </c>
@@ -1772,7 +1794,7 @@
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="26"/>
       <c r="H14" s="13">
         <v>1</v>
       </c>
@@ -1803,13 +1825,13 @@
       </c>
     </row>
     <row r="15" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <f>O19*O17</f>
         <v>18055.555555555558</v>
       </c>
@@ -1833,13 +1855,13 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <f>O19*O18</f>
         <v>6944.4444444444425</v>
       </c>
@@ -1857,14 +1879,14 @@
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <f>SUM(C15:C16)</f>
         <v>25000</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="17">
@@ -1881,7 +1903,7 @@
         <f>M12</f>
         <v>-20</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="21">
         <f t="array" ref="O17:O19">MMULT(I17:K19,M17:M19)</f>
         <v>433.33333333333343</v>
       </c>
@@ -1896,8 +1918,8 @@
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="26"/>
+      <c r="E18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1925,7 +1947,7 @@
       <c r="N18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="21">
         <v>166.66666666666663</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -1933,20 +1955,20 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <f>C15-C11</f>
         <v>4594.4444444444434</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="17">
@@ -1962,7 +1984,7 @@
         <f>M14</f>
         <v>600</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="21">
         <v>41.666666666666664</v>
       </c>
       <c r="P19" s="3" t="s">
@@ -1977,13 +1999,13 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <f>C16-C12</f>
         <v>1188.8888888888878</v>
       </c>
@@ -1998,7 +2020,7 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <f>SUM(C19:C20)</f>
         <v>5783.3333333333312</v>
       </c>
@@ -2027,10 +2049,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D645412E-C371-0144-90E2-7476387808FE}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2042,72 +2067,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>433.33333267545385</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
         <v>166.66666832454609</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2117,40 +2144,40 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="31" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>600.00000099999988</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="34">
         <v>41.666679382324219</v>
       </c>
     </row>
@@ -2163,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74410A91-2D92-814C-B795-1522C93EBDA1}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,29 +2227,39 @@
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7">
+        <f>G11+G12</f>
+        <v>600.00000099999988</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <f>K14+L14*G11+(1/2)*M14*G11^2</f>
         <v>13461.111083699467</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>433.33333267545385</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2233,26 +2270,26 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f>K15+L15*G12+(1/2)*M15*G12^2</f>
         <v>5755.5556246338647</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>166.66666832454609</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -2270,22 +2307,12 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="35">
         <f>SUM(C11:C12)</f>
         <v>19216.66670833333</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7">
-        <f>G11+G12</f>
-        <v>600.00000099999988</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>4</v>
@@ -2304,11 +2331,14 @@
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="26"/>
+      <c r="E14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="33">
         <f>'Sensitivity Report 1'!E15</f>
         <v>41.666679382324219</v>
       </c>
@@ -2332,13 +2362,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <f>G14*G11</f>
         <v>18055.561038262174</v>
       </c>
@@ -2362,13 +2392,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <f>G14*G12</f>
         <v>6944.446632799034</v>
       </c>
@@ -2386,7 +2416,7 @@
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <f>SUM(C15:C16)</f>
         <v>25000.007671061208</v>
       </c>
@@ -2401,16 +2431,16 @@
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <f>C15-C11</f>
         <v>4594.4499545627077</v>
       </c>
@@ -2426,13 +2456,13 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <f>C16-C12</f>
         <v>1188.8910081651693</v>
       </c>
@@ -2447,7 +2477,7 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <f>SUM(C19:C20)</f>
         <v>5783.340962727877</v>
       </c>
